--- a/docs/assets/disciplinas/LOM3096.xlsx
+++ b/docs/assets/disciplinas/LOM3096.xlsx
@@ -150,11 +150,11 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1021 -  Física IV  (Requisito fraco)
+    <t xml:space="preserve">LOM3013 -  Ciência dos Materiais  (Requisito fraco)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3013 -  Ciência dos Materiais  (Requisito fraco)
+    <t xml:space="preserve">LOM3109 -  Fundamentos da Física Moderna  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOM3096.xlsx
+++ b/docs/assets/disciplinas/LOM3096.xlsx
@@ -40,7 +40,7 @@
     <t>Créditos-aula:</t>
   </si>
   <si>
-    <t>4</t>
+    <t>2</t>
   </si>
   <si>
     <t>Créditos-trabalho</t>
@@ -52,13 +52,13 @@
     <t>Carga horária:</t>
   </si>
   <si>
-    <t>60 h</t>
+    <t>30 h</t>
   </si>
   <si>
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,9 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introduzir ao aluno a teoria de propriedades elétricas, térmicas, magnéticas e óticas de materiais sólidos, levando em
-conta o aspecto microscópico da estrutura do material. Dá-se ênfase à aplicação do material de acordo com as
-propriedades que ele apresenta.</t>
+    <t>Introduzir ao aluno a teoria de propriedades elétricas, térmicas, magnéticas e óticas de materiais sólidos, levando emconta o aspecto microscópico da estrutura do material. Dá-se ênfase à aplicação do material de acordo com aspropriedades que ele apresenta.</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -87,11 +85,7 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>PROPRIEDADES ELETRÔNICAS: Condutividade elétrica em metais, semicondutores e isolantes.
-PROPRIEDADES MAGNÉTICAS: Conceitos Básicos. Curvas de Magnetização. Teoria de Domínio. Materiais
-Magnéticos. Aplicações.
-PROPRIEDADES TÉRMICAS: Capacidade Calorífica. Expansão, Condutividade e Tensões Térmicas. Aplicações
-PROPRIEDADES ÓTICAS: Absorção. Transparência. Reflectividade. Lasers. Aplicações.</t>
+    <t>PROPRIEDADES ELETRÔNICAS: Condutividade elétrica em metais, semicondutores e isolantes.PROPRIEDADES MAGNÉTICAS: Conceitos Básicos. Curvas de Magnetização. Teoria de Domínio. MateriaisMagnéticos. Aplicações.PROPRIEDADES TÉRMICAS: Capacidade Calorífica. Expansão, Condutividade e Tensões Térmicas. AplicaçõesPROPRIEDADES ÓTICAS: Absorção. Transparência. Reflectividade. Lasers. Aplicações.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,14 +94,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>PROPRIEDADES ELETRÔNICAS:Teoria do Elétron Livre em Metais. Níveis de Energia em Sólidos. Condutividade.
-Supercondutividade. Semicondutividade. Isolantes (Dielétricos). Aplicações.
-PROPRIEDADES MAGNÉTICAS: Conceitos Básicos. Curvas de Magnetização. Teoria de Domínio. Materiais
-Magnéticos. Aplicações.
-PROPRIEDADES TÉRMICAS: Capacidade Calorífica. Expansão Térmica. Condutividade Térmica. Tensões
-Térmicas. Aplicações
-PROPRIEDADES ÓTICAS: Absorção. Transparência. Reflectividade. Fotocondutividade. Luminescência. Lasers.
-Fibra Ótica. Danos por Radiação. Aplicações.</t>
+    <t>PROPRIEDADES ELETRÔNICAS:Teoria do Elétron Livre em Metais. Níveis de Energia em Sólidos. Condutividade.Supercondutividade. Semicondutividade. Isolantes (Dielétricos). Aplicações.PROPRIEDADES MAGNÉTICAS: Conceitos Básicos. Curvas de Magnetização. Teoria de Domínio. MateriaisMagnéticos. Aplicações.PROPRIEDADES TÉRMICAS: Capacidade Calorífica. Expansão Térmica. Condutividade Térmica. TensõesTérmicas. AplicaçõesPROPRIEDADES ÓTICAS: Absorção. Transparência. Reflectividade. Fotocondutividade. Luminescência. Lasers.Fibra Ótica. Danos por Radiação. Aplicações.</t>
   </si>
   <si>
     <t>Syllabus:</t>

--- a/docs/assets/disciplinas/LOM3096.xlsx
+++ b/docs/assets/disciplinas/LOM3096.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>5840726 - Cristina Bormio Nunes</t>
+  </si>
+  <si>
+    <t>1341653 - Maria José Ramos Sandim</t>
   </si>
   <si>
     <t>Programa resumido:</t>
@@ -498,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,97 +634,97 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -731,6 +734,14 @@
       </c>
       <c r="C25" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3096.xlsx
+++ b/docs/assets/disciplinas/LOM3096.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introduzir ao aluno a teoria de propriedades elétricas, térmicas, magnéticas e óticas de materiais sólidos, levando emconta o aspecto microscópico da estrutura do material. Dá-se ênfase à aplicação do material de acordo com aspropriedades que ele apresenta.</t>
+    <t>5840726 - Cristina Bormio Nunes</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,62 +79,45 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840726 - Cristina Bormio Nunes</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1341653 - Maria José Ramos Sandim</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>PROPRIEDADES ELETRÔNICAS: Condutividade elétrica em metais, semicondutores e isolantes.PROPRIEDADES MAGNÉTICAS: Conceitos Básicos. Curvas de Magnetização. Teoria de Domínio. MateriaisMagnéticos. Aplicações.PROPRIEDADES TÉRMICAS: Capacidade Calorífica. Expansão, Condutividade e Tensões Térmicas. AplicaçõesPROPRIEDADES ÓTICAS: Absorção. Transparência. Reflectividade. Lasers. Aplicações.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>PROPRIEDADES ELETRÔNICAS:Teoria do Elétron Livre em Metais. Níveis de Energia em Sólidos. Condutividade.Supercondutividade. Semicondutividade. Isolantes (Dielétricos). Aplicações.PROPRIEDADES MAGNÉTICAS: Conceitos Básicos. Curvas de Magnetização. Teoria de Domínio. MateriaisMagnéticos. Aplicações.PROPRIEDADES TÉRMICAS: Capacidade Calorífica. Expansão Térmica. Condutividade Térmica. TensõesTérmicas. AplicaçõesPROPRIEDADES ÓTICAS: Absorção. Transparência. Reflectividade. Fotocondutividade. Luminescência. Lasers.Fibra Ótica. Danos por Radiação. Aplicações.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aplicação de duas provas em sala de aula, P1 e P2.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final (NF) antes da recuperação será
 NF = (P1 + 2*P2)/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação final consta da aplicação de uma prova PR A média final (MF) após a recuperação será
 calculada como: MF = (NF + PR)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>[1] Callister, W. D., Materials Science and Engineering, An Introduction, John Wiley &amp;Sons, 1990.
-[2] Shakelford, J. F., Introduction to Materials Science for Engineers,,Prentice Hall, 4a. edição, 1996.
-[3] Jastrzebski, Z. D., The Nature and Properties of Engineering Materials, John Wiley &amp; Sons, 3a. edição, 1987.
-[4] Solymar, L. and Walsh, D., Lectures On the Electrical Properties of Materials, Oxford Science Publications, 5a.
-edição, 1993.
-[5] Kittel, C., Introduction to Solid State Physics, John Wiley, 7a. edição, 1996</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -501,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,56 +609,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -690,7 +679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -701,47 +690,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3096.xlsx
+++ b/docs/assets/disciplinas/LOM3096.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Introduzir ao aluno a teoria de propriedades elétricas, térmicas, magnéticas e óticas de materiais sólidos, levando emconta o aspecto microscópico da estrutura do material. Dá-se ênfase à aplicação do material de acordo com aspropriedades que ele apresenta.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840726 - Cristina Bormio Nunes</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1341653 - Maria José Ramos Sandim</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>PROPRIEDADES ELETRÔNICAS: Condutividade elétrica em metais, semicondutores e isolantes.PROPRIEDADES MAGNÉTICAS: Conceitos Básicos. Curvas de Magnetização. Teoria de Domínio. MateriaisMagnéticos. Aplicações.PROPRIEDADES TÉRMICAS: Capacidade Calorífica. Expansão, Condutividade e Tensões Térmicas. AplicaçõesPROPRIEDADES ÓTICAS: Absorção. Transparência. Reflectividade. Lasers. Aplicações.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>PROPRIEDADES ELETRÔNICAS:Teoria do Elétron Livre em Metais. Níveis de Energia em Sólidos. Condutividade.Supercondutividade. Semicondutividade. Isolantes (Dielétricos). Aplicações.PROPRIEDADES MAGNÉTICAS: Conceitos Básicos. Curvas de Magnetização. Teoria de Domínio. MateriaisMagnéticos. Aplicações.PROPRIEDADES TÉRMICAS: Capacidade Calorífica. Expansão Térmica. Condutividade Térmica. TensõesTérmicas. AplicaçõesPROPRIEDADES ÓTICAS: Absorção. Transparência. Reflectividade. Fotocondutividade. Luminescência. Lasers.Fibra Ótica. Danos por Radiação. Aplicações.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,27 +109,32 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1341653 - Maria José Ramos Sandim</t>
+    <t>Aplicação de duas provas em sala de aula, P1 e P2.</t>
   </si>
   <si>
     <t>Critério:</t>
-  </si>
-  <si>
-    <t>Aplicação de duas provas em sala de aula, P1 e P2.</t>
-  </si>
-  <si>
-    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final (NF) antes da recuperação será
 NF = (P1 + 2*P2)/3</t>
   </si>
   <si>
-    <t>Bibliografia:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A recuperação final consta da aplicação de uma prova PR A média final (MF) após a recuperação será
 calculada como: MF = (NF + PR)/2</t>
+  </si>
+  <si>
+    <t>Bibliografia:</t>
+  </si>
+  <si>
+    <t>[1] Callister, W. D., Materials Science and Engineering, An Introduction, John Wiley &amp;Sons, 1990.
+[2] Shakelford, J. F., Introduction to Materials Science for Engineers,,Prentice Hall, 4a. edição, 1996.
+[3] Jastrzebski, Z. D., The Nature and Properties of Engineering Materials, John Wiley &amp; Sons, 3a. edição, 1987.
+[4] Solymar, L. and Walsh, D., Lectures On the Electrical Properties of Materials, Oxford Science Publications, 5a.
+edição, 1993.
+[5] Kittel, C., Introduction to Solid State Physics, John Wiley, 7a. edição, 1996</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -484,13 +501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -609,62 +626,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -679,7 +690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -690,25 +701,47 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
